--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4312,26 +4312,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11995,11 +11995,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19331,11 +19331,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19344,12 +19344,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21836,12 +21836,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -5684,7 +5684,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4312,26 +4312,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11995,11 +11995,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19331,11 +19331,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19344,12 +19344,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21836,12 +21836,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Suez Medioambiente Chile S.A.</t>
+          <t>AGRODESAL SpA</t>
         </is>
       </c>
       <c r="F81" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa Concesionaria de Servicios Sanitarios S.A</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F61" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GRUPO ESTELAR SpA</t>
+          <t>Grupo Estelar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4312,26 +4312,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11995,11 +11995,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13291,11 +13291,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13304,12 +13304,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19331,11 +19331,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19344,12 +19344,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21836,12 +21836,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -13195,7 +13195,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F268" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Santa Fe Mining</t>
+          <t>Zhongli Mining SpA</t>
         </is>
       </c>
       <c r="F154" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -10607,7 +10607,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4360,26 +4360,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,11 +12043,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19379,11 +19379,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19392,12 +19392,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21884,12 +21884,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -16983,7 +16983,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F348" t="n">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>21/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,11 +12139,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19475,11 +19475,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19488,12 +19488,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21980,12 +21980,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,11 +12139,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19475,11 +19475,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19488,12 +19488,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21980,12 +21980,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,11 +12139,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19475,11 +19475,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19488,12 +19488,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
+          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19859,11 +19859,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Maria Sakamoto Prado</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
+          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19907,11 +19907,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Comercializadora Ollague Ltda</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
+          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19955,11 +19955,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Maria Sakamoto Prado</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
+          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20003,11 +20003,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Comercializadora Ollague Ltda</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21980,12 +21980,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,11 +12139,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19475,11 +19475,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19488,12 +19488,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
+          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19859,11 +19859,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Maria Sakamoto Prado</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
+          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19907,11 +19907,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Comercializadora Ollague Ltda</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
+          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19955,11 +19955,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Maria Sakamoto Prado</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
+          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20003,11 +20003,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Comercializadora Ollague Ltda</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21980,12 +21980,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J456"/>
+  <dimension ref="A1:J457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22234,6 +22234,50 @@
         </is>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>prueba DIA h</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129436520&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Caldera.xlsx
+++ b/data/Caldera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4408,26 +4408,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>219</v>
+        <v>460000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>460000</v>
+        <v>219</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Las Gemelas SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cancha de Acopio para Mineral de Hierro y Embarque por Puerto Caldera</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Las Gemelas SpA</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5331176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
+          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>American Iron</t>
+          <t>Cultivos Vinycon Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Incorporación de Especie de cultivo en estanque, Palometa (Seriola lalandi) y Corvina (Cilus gilberti), adicional a los autorizados para Cultivos Vinycon Ltda.</t>
+          <t>Procesamiento de minerales de hierro en la Region de Atacama</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cultivos Vinycon Ltda.</t>
+          <t>American Iron</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4774007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4766579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,11 +12091,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,11 +12139,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13435,11 +13435,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19427,11 +19427,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19475,11 +19475,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19488,12 +19488,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
+          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19859,11 +19859,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Maria Sakamoto Prado</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
+          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19907,11 +19907,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de caldera</t>
+          <t>Comercializadora Ollague Ltda</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Gracilaria en forma Directa e Indirecta al Sustrato</t>
+          <t>Modificacion del plan regulador de Caldera en la zona U2AC-R22 Sector Oriente Camino-Bahía Inglesa</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19955,11 +19955,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Maria Sakamoto Prado</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cultivo de alga gracilaria en forma directa e indirecta al sustrato</t>
+          <t>Modificación al plan regulador Caldera en la zona U3ACB-R21B-R21C-R22 sector Punta Caldereta</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20003,11 +20003,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Comercializadora Ollague Ltda</t>
+          <t>Ilustre Municipalidad de caldera</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21932,12 +21932,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Sibucal Cultivo de Pectínidos</t>
+          <t>Proyecto Sibucal Cultivo de Pectínidos y Gracilaria</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21980,12 +21980,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
